--- a/posesiones/1381248.xlsx
+++ b/posesiones/1381248.xlsx
@@ -1982,10 +1982,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2270,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <v>27</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2370,7 +2370,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R11">
         <v>17</v>
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2473,7 +2473,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R13">
         <v>10</v>
@@ -2526,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R14">
         <v>16</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2676,7 +2676,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R17">
         <v>9</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2820,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2917,7 +2917,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R22">
         <v>17</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -3017,7 +3017,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R24">
         <v>16</v>
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3164,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3211,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3311,7 +3311,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R30">
         <v>19</v>
@@ -3361,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3455,7 +3455,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3502,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3552,7 +3552,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R35">
         <v>10</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3652,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3699,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3937,7 +3937,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R43">
         <v>26</v>
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R44">
         <v>16</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4090,7 +4090,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R46">
         <v>8</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4193,7 +4193,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R48">
         <v>14</v>
@@ -4243,7 +4243,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4293,7 +4293,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R50">
         <v>24</v>
@@ -4346,7 +4346,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R51">
         <v>24</v>
@@ -4396,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4446,7 +4446,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R53">
         <v>16</v>
@@ -4499,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4596,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4646,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R57">
         <v>24</v>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4796,7 +4796,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R60">
         <v>8</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4946,7 +4946,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R63">
         <v>13</v>
@@ -4996,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -5046,7 +5046,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R65">
         <v>15</v>
@@ -5099,7 +5099,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R66">
         <v>25</v>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5202,7 +5202,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R68">
         <v>18</v>
@@ -5252,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5302,7 +5302,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R70">
         <v>16</v>
@@ -5355,7 +5355,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5402,7 +5402,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R72">
         <v>24</v>
@@ -5452,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5499,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5549,7 +5549,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R75">
         <v>20</v>
@@ -5599,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5649,7 +5649,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R77">
         <v>21</v>
@@ -5702,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5752,7 +5752,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R79">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5855,7 +5855,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R81">
         <v>9</v>
@@ -5908,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5958,7 +5958,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R83">
         <v>9</v>
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -6061,7 +6061,7 @@
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R85">
         <v>5</v>
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6161,7 +6161,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R87">
         <v>25</v>
@@ -6214,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6264,7 +6264,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R89">
         <v>8</v>
@@ -6314,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6364,7 +6364,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R91">
         <v>18</v>
@@ -6414,7 +6414,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6461,7 +6461,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6514,7 +6514,7 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R94">
         <v>20</v>
@@ -6564,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6611,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6658,7 +6658,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6705,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6802,7 +6802,7 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R100">
         <v>12</v>
@@ -6852,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6899,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6949,7 +6949,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6999,7 +6999,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R104">
         <v>29</v>
@@ -7043,10 +7043,10 @@
         <v>1</v>
       </c>
       <c r="P105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q105">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7093,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7140,7 +7140,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7181,10 +7181,10 @@
         <v>1</v>
       </c>
       <c r="P108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q108">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7234,7 +7234,7 @@
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R109">
         <v>14</v>
@@ -7287,7 +7287,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7334,7 +7334,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7384,7 +7384,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7434,7 +7434,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R113">
         <v>10</v>
@@ -7484,7 +7484,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7534,7 +7534,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R115">
         <v>12</v>
@@ -7584,7 +7584,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7678,7 +7678,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7728,7 +7728,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R119">
         <v>25</v>
@@ -7778,7 +7778,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7828,7 +7828,7 @@
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R121">
         <v>5</v>
@@ -7878,7 +7878,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7928,7 +7928,7 @@
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R123">
         <v>11</v>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -8028,7 +8028,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R125">
         <v>18</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8125,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8172,7 +8172,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8222,7 +8222,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R129">
         <v>0</v>
@@ -8275,7 +8275,7 @@
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R130">
         <v>15</v>
@@ -8328,7 +8328,7 @@
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R131">
         <v>28</v>
@@ -8381,7 +8381,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8431,7 +8431,7 @@
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R133">
         <v>15</v>
@@ -8481,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8531,7 +8531,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R135">
         <v>8</v>
@@ -8581,7 +8581,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8631,7 +8631,7 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R137">
         <v>7</v>
@@ -8681,7 +8681,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8728,7 +8728,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8778,7 +8778,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8828,7 +8828,7 @@
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R141">
         <v>12</v>
@@ -8875,7 +8875,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8925,7 +8925,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R143">
         <v>13</v>
@@ -8975,7 +8975,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -9025,7 +9025,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -9075,7 +9075,7 @@
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R146">
         <v>8</v>
@@ -9125,7 +9125,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9175,7 +9175,7 @@
         <v>1</v>
       </c>
       <c r="Q148">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R148">
         <v>19</v>
@@ -9228,7 +9228,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R149">
         <v>21</v>
@@ -9281,7 +9281,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9331,7 +9331,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R151">
         <v>14</v>
@@ -9384,7 +9384,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9434,7 +9434,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R153">
         <v>6</v>
@@ -9484,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9531,7 +9531,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9578,7 +9578,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9625,7 +9625,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9672,7 +9672,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9719,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9769,7 +9769,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R160">
         <v>23</v>
@@ -9819,7 +9819,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9869,7 +9869,7 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R162">
         <v>19</v>
@@ -9919,7 +9919,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9966,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -10013,7 +10013,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -10063,7 +10063,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -10110,7 +10110,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10204,7 +10204,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10251,7 +10251,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10301,7 +10301,7 @@
         <v>1</v>
       </c>
       <c r="Q171">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R171">
         <v>32</v>
@@ -10354,7 +10354,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R172">
         <v>15</v>
@@ -10407,7 +10407,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10454,7 +10454,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10501,7 +10501,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10548,7 +10548,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10598,7 +10598,7 @@
         <v>1</v>
       </c>
       <c r="Q177">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R177">
         <v>12</v>
@@ -10651,7 +10651,7 @@
         <v>1</v>
       </c>
       <c r="Q178">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R178">
         <v>16</v>
@@ -10701,7 +10701,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10751,7 +10751,7 @@
         <v>1</v>
       </c>
       <c r="Q180">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R180">
         <v>6</v>
@@ -10798,7 +10798,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10848,7 +10848,7 @@
         <v>1</v>
       </c>
       <c r="Q182">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R182">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10945,7 +10945,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10992,7 +10992,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -11039,7 +11039,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -11086,7 +11086,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11136,7 +11136,7 @@
         <v>1</v>
       </c>
       <c r="Q188">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R188">
         <v>5</v>
@@ -11186,7 +11186,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11236,7 +11236,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11283,7 +11283,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11330,7 +11330,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11377,7 +11377,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11427,7 +11427,7 @@
         <v>1</v>
       </c>
       <c r="Q194">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R194">
         <v>7</v>
@@ -11480,7 +11480,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11527,7 +11527,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11574,7 +11574,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11621,7 +11621,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11668,7 +11668,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11718,7 +11718,7 @@
         <v>1</v>
       </c>
       <c r="Q200">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R200">
         <v>29</v>
@@ -11768,7 +11768,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11815,7 +11815,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11909,7 +11909,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11959,7 +11959,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R205">
         <v>4</v>
@@ -12009,7 +12009,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -12056,7 +12056,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -12103,7 +12103,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12153,7 +12153,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12200,7 +12200,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12250,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12300,7 +12300,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R212">
         <v>24</v>
@@ -12353,7 +12353,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12403,7 +12403,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R214">
         <v>14</v>
@@ -12456,7 +12456,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12503,7 +12503,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12550,7 +12550,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12600,7 +12600,7 @@
         <v>1</v>
       </c>
       <c r="Q218">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R218">
         <v>9</v>
@@ -12653,7 +12653,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12700,7 +12700,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12753,7 +12753,7 @@
         <v>1</v>
       </c>
       <c r="Q221">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R221">
         <v>17</v>
@@ -12803,7 +12803,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12850,7 +12850,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12897,7 +12897,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12947,7 +12947,7 @@
         <v>1</v>
       </c>
       <c r="Q225">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R225">
         <v>14</v>
@@ -13000,7 +13000,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -13050,7 +13050,7 @@
         <v>1</v>
       </c>
       <c r="Q227">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R227">
         <v>5</v>
@@ -13100,7 +13100,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13144,7 +13144,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13191,7 +13191,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13238,7 +13238,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13288,7 +13288,7 @@
         <v>1</v>
       </c>
       <c r="Q232">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R232">
         <v>11</v>
@@ -13338,7 +13338,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13388,7 +13388,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13435,7 +13435,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13482,7 +13482,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13529,7 +13529,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13576,7 +13576,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13623,7 +13623,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13673,7 +13673,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R240">
         <v>14</v>
@@ -13723,7 +13723,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13770,7 +13770,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13820,7 +13820,7 @@
         <v>1</v>
       </c>
       <c r="Q243">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R243">
         <v>13</v>
@@ -13870,7 +13870,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13917,7 +13917,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13967,7 +13967,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R246">
         <v>11</v>
@@ -14017,7 +14017,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -14064,7 +14064,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14111,7 +14111,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14158,7 +14158,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14205,7 +14205,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14252,7 +14252,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14302,7 +14302,7 @@
         <v>1</v>
       </c>
       <c r="Q253">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R253">
         <v>14</v>
@@ -14352,7 +14352,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14399,7 +14399,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14449,7 +14449,7 @@
         <v>1</v>
       </c>
       <c r="Q256">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R256">
         <v>16</v>
@@ -14502,7 +14502,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14552,7 +14552,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R258">
         <v>6</v>
@@ -14596,10 +14596,10 @@
         <v>1</v>
       </c>
       <c r="P259" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q259">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14646,7 +14646,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14693,7 +14693,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14740,7 +14740,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14787,7 +14787,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14828,10 +14828,10 @@
         <v>1</v>
       </c>
       <c r="P264" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q264">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14881,7 +14881,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R265">
         <v>11</v>
@@ -14934,7 +14934,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R266">
         <v>17</v>
@@ -14984,7 +14984,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -15034,7 +15034,7 @@
         <v>1</v>
       </c>
       <c r="Q268">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R268">
         <v>22</v>
@@ -15084,7 +15084,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15131,7 +15131,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15178,7 +15178,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15228,7 +15228,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R272">
         <v>27</v>
@@ -15281,7 +15281,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R273">
         <v>20</v>
@@ -15334,7 +15334,7 @@
         <v>1</v>
       </c>
       <c r="Q274">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R274">
         <v>19</v>
@@ -15387,7 +15387,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R275">
         <v>18</v>
@@ -15437,7 +15437,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15484,7 +15484,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15534,7 +15534,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R278">
         <v>0</v>
@@ -15587,7 +15587,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15637,7 +15637,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R280">
         <v>14</v>
@@ -15687,7 +15687,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15734,7 +15734,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15781,7 +15781,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15828,7 +15828,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15878,7 +15878,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R285">
         <v>0</v>
@@ -15928,7 +15928,7 @@
         <v>1</v>
       </c>
       <c r="Q286">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R286">
         <v>15</v>
@@ -15981,7 +15981,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R287">
         <v>11</v>
@@ -16034,7 +16034,7 @@
         <v>1</v>
       </c>
       <c r="Q288">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R288">
         <v>21</v>
@@ -16087,7 +16087,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R289">
         <v>9</v>
@@ -16140,7 +16140,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R290">
         <v>18</v>
@@ -16193,7 +16193,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16243,7 +16243,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R292">
         <v>5</v>
@@ -16293,7 +16293,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16343,7 +16343,7 @@
         <v>1</v>
       </c>
       <c r="Q294">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R294">
         <v>24</v>
@@ -16393,7 +16393,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16440,7 +16440,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16490,7 +16490,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16540,7 +16540,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R298">
         <v>22</v>
@@ -16593,7 +16593,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16643,7 +16643,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R300">
         <v>15</v>
@@ -16693,7 +16693,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16743,7 +16743,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R302">
         <v>17</v>
@@ -16793,7 +16793,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16840,7 +16840,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16887,7 +16887,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16934,7 +16934,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16981,7 +16981,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R307">
         <v>37</v>
@@ -17034,7 +17034,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R308">
         <v>15</v>
@@ -17084,7 +17084,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -17131,7 +17131,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17178,7 +17178,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17228,7 +17228,7 @@
         <v>1</v>
       </c>
       <c r="Q312">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R312">
         <v>11</v>
@@ -17281,7 +17281,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17328,7 +17328,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17375,7 +17375,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17422,7 +17422,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17472,7 +17472,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R317">
         <v>17</v>
@@ -17525,7 +17525,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R318">
         <v>14</v>
@@ -17578,7 +17578,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17625,7 +17625,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17672,7 +17672,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17719,7 +17719,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17766,7 +17766,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17813,7 +17813,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17863,7 +17863,7 @@
         <v>1</v>
       </c>
       <c r="Q325">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R325">
         <v>5</v>
@@ -17916,7 +17916,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17966,7 +17966,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R327">
         <v>15</v>
@@ -18016,7 +18016,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -18066,7 +18066,7 @@
         <v>1</v>
       </c>
       <c r="Q329">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R329">
         <v>20</v>
@@ -18119,7 +18119,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R330">
         <v>24</v>
@@ -18172,7 +18172,7 @@
         <v>1</v>
       </c>
       <c r="Q331">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R331">
         <v>20</v>
@@ -18222,7 +18222,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18275,7 +18275,7 @@
         <v>1</v>
       </c>
       <c r="Q333">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R333">
         <v>15</v>
@@ -18325,7 +18325,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18372,7 +18372,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18419,7 +18419,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18469,7 +18469,7 @@
         <v>1</v>
       </c>
       <c r="Q337">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R337">
         <v>21</v>
@@ -18519,7 +18519,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18566,7 +18566,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18616,7 +18616,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R340">
         <v>16</v>
@@ -18669,7 +18669,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18719,7 +18719,7 @@
         <v>1</v>
       </c>
       <c r="Q342">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R342">
         <v>11</v>
@@ -18769,7 +18769,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18816,7 +18816,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18863,7 +18863,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18910,7 +18910,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18957,7 +18957,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -19007,7 +19007,7 @@
         <v>1</v>
       </c>
       <c r="Q348">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R348">
         <v>18</v>
@@ -19057,7 +19057,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -19107,7 +19107,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19157,7 +19157,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R351">
         <v>18</v>
@@ -19210,7 +19210,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19257,7 +19257,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19304,7 +19304,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19354,7 +19354,7 @@
         <v>1</v>
       </c>
       <c r="Q355">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R355">
         <v>13</v>
@@ -19404,7 +19404,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19451,7 +19451,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19498,7 +19498,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19545,7 +19545,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19595,7 +19595,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R360">
         <v>0</v>
@@ -19645,7 +19645,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19692,7 +19692,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19739,7 +19739,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19786,7 +19786,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19836,7 +19836,7 @@
         <v>1</v>
       </c>
       <c r="Q365">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R365">
         <v>4</v>
@@ -19880,10 +19880,10 @@
         <v>1</v>
       </c>
       <c r="P366" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q366">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19930,7 +19930,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19977,7 +19977,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -20024,7 +20024,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -20071,7 +20071,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -20118,7 +20118,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20165,7 +20165,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20206,10 +20206,10 @@
         <v>1</v>
       </c>
       <c r="P373" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q373">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20259,7 +20259,7 @@
         <v>1</v>
       </c>
       <c r="Q374">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R374">
         <v>22</v>
@@ -20309,7 +20309,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20356,7 +20356,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20403,7 +20403,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20450,7 +20450,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20500,7 +20500,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20547,7 +20547,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20597,7 +20597,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20647,7 +20647,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R382">
         <v>36</v>
@@ -20700,7 +20700,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R383">
         <v>14</v>
@@ -20750,7 +20750,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20800,7 +20800,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R385">
         <v>15</v>
@@ -20853,7 +20853,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20903,7 +20903,7 @@
         <v>1</v>
       </c>
       <c r="Q387">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R387">
         <v>13</v>
@@ -20956,7 +20956,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -21003,7 +21003,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -21050,7 +21050,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -21100,7 +21100,7 @@
         <v>1</v>
       </c>
       <c r="Q391">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R391">
         <v>12</v>
@@ -21150,7 +21150,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21197,7 +21197,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21244,7 +21244,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21291,7 +21291,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21338,7 +21338,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21385,7 +21385,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21432,7 +21432,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21479,7 +21479,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21526,7 +21526,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21573,7 +21573,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21620,7 +21620,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R402">
         <v>37</v>
@@ -21673,7 +21673,7 @@
         <v>1</v>
       </c>
       <c r="Q403">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R403">
         <v>14</v>
@@ -21723,7 +21723,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21773,7 +21773,7 @@
         <v>1</v>
       </c>
       <c r="Q405">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R405">
         <v>19</v>
@@ -21823,7 +21823,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21873,7 +21873,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R407">
         <v>16</v>
@@ -21926,7 +21926,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21976,7 +21976,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R409">
         <v>21</v>
@@ -22026,7 +22026,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -22076,7 +22076,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R411">
         <v>5</v>
@@ -22123,7 +22123,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22170,7 +22170,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22217,7 +22217,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22264,7 +22264,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22311,7 +22311,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22361,7 +22361,7 @@
         <v>1</v>
       </c>
       <c r="Q417">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R417">
         <v>13</v>
@@ -22414,7 +22414,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22464,7 +22464,7 @@
         <v>1</v>
       </c>
       <c r="Q419">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R419">
         <v>21</v>
@@ -22514,7 +22514,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22561,7 +22561,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22608,7 +22608,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22655,7 +22655,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22705,7 +22705,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R424">
         <v>23</v>
@@ -22758,7 +22758,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R425">
         <v>14</v>
@@ -22811,7 +22811,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22861,7 +22861,7 @@
         <v>1</v>
       </c>
       <c r="Q427">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R427">
         <v>17</v>
@@ -22914,7 +22914,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22961,7 +22961,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -23011,7 +23011,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -23061,7 +23061,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R431">
         <v>28</v>
@@ -23114,7 +23114,7 @@
         <v>1</v>
       </c>
       <c r="Q432">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R432">
         <v>7</v>
@@ -23167,7 +23167,7 @@
         <v>1</v>
       </c>
       <c r="Q433">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R433">
         <v>21</v>
@@ -23217,7 +23217,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23267,7 +23267,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R435">
         <v>13</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23361,7 +23361,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23408,7 +23408,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23455,7 +23455,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23505,7 +23505,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R440">
         <v>31</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23608,7 +23608,7 @@
         <v>1</v>
       </c>
       <c r="Q442">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R442">
         <v>22</v>
@@ -23661,7 +23661,7 @@
         <v>1</v>
       </c>
       <c r="Q443">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R443">
         <v>16</v>
@@ -23711,7 +23711,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23761,7 +23761,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23811,7 +23811,7 @@
         <v>1</v>
       </c>
       <c r="Q446">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R446">
         <v>24</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23911,7 +23911,7 @@
         <v>1</v>
       </c>
       <c r="Q448">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R448">
         <v>19</v>
@@ -23961,7 +23961,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -24008,7 +24008,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -24058,7 +24058,7 @@
         <v>1</v>
       </c>
       <c r="Q451">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R451">
         <v>23</v>
@@ -24108,7 +24108,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24155,7 +24155,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24202,7 +24202,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24249,7 +24249,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24299,7 +24299,7 @@
         <v>1</v>
       </c>
       <c r="Q456">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R456">
         <v>7</v>
@@ -24349,7 +24349,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24396,7 +24396,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24443,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24540,7 +24540,7 @@
         <v>1</v>
       </c>
       <c r="Q461">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R461">
         <v>7</v>
@@ -24593,7 +24593,7 @@
         <v>1</v>
       </c>
       <c r="Q462">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R462">
         <v>18</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24696,7 +24696,7 @@
         <v>1</v>
       </c>
       <c r="Q464">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R464">
         <v>13</v>
@@ -24746,7 +24746,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24790,7 +24790,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24840,7 +24840,7 @@
         <v>1</v>
       </c>
       <c r="Q467">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R467">
         <v>0</v>
@@ -24893,7 +24893,7 @@
         <v>1</v>
       </c>
       <c r="Q468">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R468">
         <v>17</v>
@@ -24943,7 +24943,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24990,7 +24990,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -25037,7 +25037,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25178,7 +25178,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25225,7 +25225,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25272,7 +25272,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25319,7 +25319,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25413,7 +25413,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25460,7 +25460,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25507,7 +25507,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25557,7 +25557,7 @@
         <v>1</v>
       </c>
       <c r="Q482">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R482">
         <v>11</v>
@@ -25607,7 +25607,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25654,7 +25654,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25698,7 +25698,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25745,7 +25745,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25845,7 +25845,7 @@
         <v>1</v>
       </c>
       <c r="Q488">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R488">
         <v>10</v>
@@ -25889,10 +25889,10 @@
         <v>1</v>
       </c>
       <c r="P489" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q489">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25939,7 +25939,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25986,7 +25986,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -26027,10 +26027,10 @@
         <v>1</v>
       </c>
       <c r="P492" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q492">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -26124,7 +26124,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26171,7 +26171,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26221,7 +26221,7 @@
         <v>1</v>
       </c>
       <c r="Q496">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="R496">
         <v>9</v>
@@ -26274,7 +26274,7 @@
         <v>1</v>
       </c>
       <c r="Q497">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="R497">
         <v>16</v>
@@ -26324,7 +26324,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26374,7 +26374,7 @@
         <v>1</v>
       </c>
       <c r="Q499">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="R499">
         <v>16</v>
@@ -26424,7 +26424,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26471,7 +26471,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26518,7 +26518,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26568,7 +26568,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26615,7 +26615,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26662,7 +26662,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26756,7 +26756,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26803,7 +26803,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26853,7 +26853,7 @@
         <v>1</v>
       </c>
       <c r="Q509">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="R509">
         <v>17</v>
@@ -26906,7 +26906,7 @@
         <v>1</v>
       </c>
       <c r="Q510">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="R510">
         <v>18</v>
@@ -26956,7 +26956,7 @@
         <v>0</v>
       </c>
       <c r="Q511">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -27006,7 +27006,7 @@
         <v>1</v>
       </c>
       <c r="Q512">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="R512">
         <v>19</v>
@@ -27056,7 +27056,7 @@
         <v>0</v>
       </c>
       <c r="Q513">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -27103,7 +27103,7 @@
         <v>0</v>
       </c>
       <c r="Q514">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="515" spans="1:18">
@@ -27150,7 +27150,7 @@
         <v>0</v>
       </c>
       <c r="Q515">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="516" spans="1:18">
@@ -27197,7 +27197,7 @@
         <v>0</v>
       </c>
       <c r="Q516">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="517" spans="1:18">
@@ -27244,7 +27244,7 @@
         <v>0</v>
       </c>
       <c r="Q517">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="518" spans="1:18">
@@ -27291,7 +27291,7 @@
         <v>0</v>
       </c>
       <c r="Q518">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="519" spans="1:18">
@@ -27338,7 +27338,7 @@
         <v>0</v>
       </c>
       <c r="Q519">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="520" spans="1:18">
@@ -27388,7 +27388,7 @@
         <v>1</v>
       </c>
       <c r="Q520">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="R520">
         <v>9</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="Q521">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="522" spans="1:18">
@@ -27485,7 +27485,7 @@
         <v>0</v>
       </c>
       <c r="Q522">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="523" spans="1:18">
@@ -27532,7 +27532,7 @@
         <v>0</v>
       </c>
       <c r="Q523">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="524" spans="1:18">
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q524">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="525" spans="1:18">
@@ -27626,7 +27626,7 @@
         <v>0</v>
       </c>
       <c r="Q525">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="526" spans="1:18">
@@ -27676,7 +27676,7 @@
         <v>1</v>
       </c>
       <c r="Q526">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="R526">
         <v>13</v>
@@ -27726,7 +27726,7 @@
         <v>0</v>
       </c>
       <c r="Q527">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="528" spans="1:18">
@@ -27773,7 +27773,7 @@
         <v>0</v>
       </c>
       <c r="Q528">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="529" spans="1:18">
@@ -27820,7 +27820,7 @@
         <v>0</v>
       </c>
       <c r="Q529">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="530" spans="1:18">
@@ -27870,7 +27870,7 @@
         <v>1</v>
       </c>
       <c r="Q530">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="R530">
         <v>13</v>
@@ -27920,7 +27920,7 @@
         <v>0</v>
       </c>
       <c r="Q531">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="532" spans="1:18">
@@ -27967,7 +27967,7 @@
         <v>0</v>
       </c>
       <c r="Q532">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="533" spans="1:18">
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="Q533">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="534" spans="1:18">
@@ -28061,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="Q534">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="535" spans="1:18">
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="Q535">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="536" spans="1:18">
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="Q536">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="537" spans="1:18">
@@ -28205,7 +28205,7 @@
         <v>1</v>
       </c>
       <c r="Q537">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="R537">
         <v>6</v>
@@ -28255,7 +28255,7 @@
         <v>0</v>
       </c>
       <c r="Q538">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="539" spans="1:18">
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="Q539">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="540" spans="1:18">
@@ -28355,7 +28355,7 @@
         <v>1</v>
       </c>
       <c r="Q540">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="R540">
         <v>28</v>
@@ -28408,7 +28408,7 @@
         <v>1</v>
       </c>
       <c r="Q541">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="R541">
         <v>7</v>
@@ -28458,7 +28458,7 @@
         <v>0</v>
       </c>
       <c r="Q542">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="543" spans="1:18">
@@ -28505,7 +28505,7 @@
         <v>0</v>
       </c>
       <c r="Q543">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="544" spans="1:18">
@@ -28552,7 +28552,7 @@
         <v>0</v>
       </c>
       <c r="Q544">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="545" spans="1:18">
@@ -28599,7 +28599,7 @@
         <v>0</v>
       </c>
       <c r="Q545">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="546" spans="1:18">
@@ -28646,7 +28646,7 @@
         <v>0</v>
       </c>
       <c r="Q546">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="547" spans="1:18">
@@ -28693,7 +28693,7 @@
         <v>0</v>
       </c>
       <c r="Q547">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="548" spans="1:18">
@@ -28743,7 +28743,7 @@
         <v>1</v>
       </c>
       <c r="Q548">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="R548">
         <v>26</v>
@@ -28793,7 +28793,7 @@
         <v>0</v>
       </c>
       <c r="Q549">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="550" spans="1:18">
@@ -28843,7 +28843,7 @@
         <v>0</v>
       </c>
       <c r="Q550">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="551" spans="1:18">
@@ -28890,7 +28890,7 @@
         <v>0</v>
       </c>
       <c r="Q551">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="552" spans="1:18">
@@ -28937,7 +28937,7 @@
         <v>0</v>
       </c>
       <c r="Q552">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="553" spans="1:18">
@@ -28984,7 +28984,7 @@
         <v>0</v>
       </c>
       <c r="Q553">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="554" spans="1:18">
@@ -29031,7 +29031,7 @@
         <v>0</v>
       </c>
       <c r="Q554">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="555" spans="1:18">
@@ -29078,7 +29078,7 @@
         <v>0</v>
       </c>
       <c r="Q555">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="556" spans="1:18">
@@ -29128,7 +29128,7 @@
         <v>1</v>
       </c>
       <c r="Q556">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="R556">
         <v>14</v>
@@ -29181,7 +29181,7 @@
         <v>0</v>
       </c>
       <c r="Q557">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="558" spans="1:18">
@@ -29231,7 +29231,7 @@
         <v>1</v>
       </c>
       <c r="Q558">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="R558">
         <v>14</v>
@@ -29284,7 +29284,7 @@
         <v>1</v>
       </c>
       <c r="Q559">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="R559">
         <v>8</v>
@@ -29334,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="Q560">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="561" spans="1:18">
@@ -29381,7 +29381,7 @@
         <v>0</v>
       </c>
       <c r="Q561">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="562" spans="1:18">
@@ -29431,7 +29431,7 @@
         <v>1</v>
       </c>
       <c r="Q562">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="R562">
         <v>19</v>
@@ -29478,7 +29478,7 @@
         <v>0</v>
       </c>
       <c r="Q563">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="564" spans="1:18">
@@ -29525,7 +29525,7 @@
         <v>0</v>
       </c>
       <c r="Q564">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="565" spans="1:18">
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="Q565">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="566" spans="1:18">
@@ -29619,7 +29619,7 @@
         <v>0</v>
       </c>
       <c r="Q566">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="567" spans="1:18">
@@ -29666,7 +29666,7 @@
         <v>0</v>
       </c>
       <c r="Q567">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="568" spans="1:18">
@@ -29713,7 +29713,7 @@
         <v>0</v>
       </c>
       <c r="Q568">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="569" spans="1:18">
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="Q569">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="570" spans="1:18">
@@ -29807,7 +29807,7 @@
         <v>0</v>
       </c>
       <c r="Q570">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="571" spans="1:18">
@@ -29854,7 +29854,7 @@
         <v>0</v>
       </c>
       <c r="Q571">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="572" spans="1:18">
@@ -29901,7 +29901,7 @@
         <v>0</v>
       </c>
       <c r="Q572">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="573" spans="1:18">
@@ -29948,7 +29948,7 @@
         <v>0</v>
       </c>
       <c r="Q573">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="574" spans="1:18">
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="Q574">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="575" spans="1:18">
@@ -30045,7 +30045,7 @@
         <v>1</v>
       </c>
       <c r="Q575">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="R575">
         <v>11</v>
@@ -30095,7 +30095,7 @@
         <v>0</v>
       </c>
       <c r="Q576">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="577" spans="1:18">
@@ -30142,7 +30142,7 @@
         <v>0</v>
       </c>
       <c r="Q577">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="578" spans="1:18">
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="Q578">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="579" spans="1:18">
@@ -30236,7 +30236,7 @@
         <v>0</v>
       </c>
       <c r="Q579">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="580" spans="1:18">
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="Q580">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="581" spans="1:18">
@@ -30330,7 +30330,7 @@
         <v>0</v>
       </c>
       <c r="Q581">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="582" spans="1:18">
@@ -30377,7 +30377,7 @@
         <v>0</v>
       </c>
       <c r="Q582">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="583" spans="1:18">
@@ -30427,7 +30427,7 @@
         <v>1</v>
       </c>
       <c r="Q583">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="R583">
         <v>9</v>
@@ -30480,7 +30480,7 @@
         <v>1</v>
       </c>
       <c r="Q584">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="R584">
         <v>8</v>
@@ -30530,7 +30530,7 @@
         <v>0</v>
       </c>
       <c r="Q585">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="586" spans="1:18">
@@ -30577,7 +30577,7 @@
         <v>0</v>
       </c>
       <c r="Q586">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="587" spans="1:18">
@@ -30624,7 +30624,7 @@
         <v>0</v>
       </c>
       <c r="Q587">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="588" spans="1:18">
@@ -30671,7 +30671,7 @@
         <v>0</v>
       </c>
       <c r="Q588">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="589" spans="1:18">
@@ -30718,7 +30718,7 @@
         <v>0</v>
       </c>
       <c r="Q589">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="590" spans="1:18">
@@ -30765,7 +30765,7 @@
         <v>0</v>
       </c>
       <c r="Q590">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="591" spans="1:18">
@@ -30812,7 +30812,7 @@
         <v>0</v>
       </c>
       <c r="Q591">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="592" spans="1:18">
@@ -30859,7 +30859,7 @@
         <v>0</v>
       </c>
       <c r="Q592">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="593" spans="1:18">
@@ -30906,7 +30906,7 @@
         <v>0</v>
       </c>
       <c r="Q593">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="594" spans="1:18">
@@ -30953,7 +30953,7 @@
         <v>0</v>
       </c>
       <c r="Q594">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="595" spans="1:18">
@@ -31000,7 +31000,7 @@
         <v>0</v>
       </c>
       <c r="Q595">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="596" spans="1:18">
@@ -31050,7 +31050,7 @@
         <v>1</v>
       </c>
       <c r="Q596">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="R596">
         <v>5</v>
@@ -31103,7 +31103,7 @@
         <v>1</v>
       </c>
       <c r="Q597">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="R597">
         <v>5</v>
@@ -31153,7 +31153,7 @@
         <v>0</v>
       </c>
       <c r="Q598">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="599" spans="1:18">
@@ -31200,7 +31200,7 @@
         <v>0</v>
       </c>
       <c r="Q599">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="600" spans="1:18">
@@ -31247,7 +31247,7 @@
         <v>0</v>
       </c>
       <c r="Q600">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="601" spans="1:18">
@@ -31294,7 +31294,7 @@
         <v>0</v>
       </c>
       <c r="Q601">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="602" spans="1:18">
@@ -31341,7 +31341,7 @@
         <v>0</v>
       </c>
       <c r="Q602">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="603" spans="1:18">
@@ -31391,7 +31391,7 @@
         <v>1</v>
       </c>
       <c r="Q603">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="R603">
         <v>4</v>
@@ -31441,7 +31441,7 @@
         <v>0</v>
       </c>
       <c r="Q604">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="605" spans="1:18">
@@ -31488,7 +31488,7 @@
         <v>0</v>
       </c>
       <c r="Q605">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="606" spans="1:18">
@@ -31535,7 +31535,7 @@
         <v>0</v>
       </c>
       <c r="Q606">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="607" spans="1:18">
@@ -31585,7 +31585,7 @@
         <v>1</v>
       </c>
       <c r="Q607">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="R607">
         <v>1</v>
@@ -31635,7 +31635,7 @@
         <v>0</v>
       </c>
       <c r="Q608">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="609" spans="1:18">
@@ -31682,7 +31682,7 @@
         <v>0</v>
       </c>
       <c r="Q609">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="610" spans="1:18">
@@ -31729,7 +31729,7 @@
         <v>0</v>
       </c>
       <c r="Q610">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="611" spans="1:18">
@@ -31779,7 +31779,7 @@
         <v>1</v>
       </c>
       <c r="Q611">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="R611">
         <v>1</v>
@@ -31832,7 +31832,7 @@
         <v>1</v>
       </c>
       <c r="Q612">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="R612">
         <v>3</v>
@@ -31876,10 +31876,10 @@
         <v>1</v>
       </c>
       <c r="P613" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q613">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="614" spans="1:18">
@@ -31920,7 +31920,7 @@
         <v>0</v>
       </c>
       <c r="Q614">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
